--- a/German_Tales/Data/German_tales_AL.xlsx
+++ b/German_Tales/Data/German_tales_AL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10987" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10991" uniqueCount="2453">
   <si>
     <t>ID</t>
   </si>
@@ -1138,7 +1138,7 @@
     <t>17.3589940</t>
   </si>
   <si>
-    <t>Fastelau[w]enslied</t>
+    <t>Fastelauwenslied</t>
   </si>
   <si>
     <t>Fastnachtslied</t>
@@ -1153,9 +1153,6 @@
     <t>Zempelburg</t>
   </si>
   <si>
-    <t>Unklar {Ort und Umgebung in einem Kreis}</t>
-  </si>
-  <si>
     <t>53.4513786</t>
   </si>
   <si>
@@ -1354,7 +1351,7 @@
     <t>Kinderspiel</t>
   </si>
   <si>
-    <t>Suse, Ju[sk]en, Suse</t>
+    <t>Suse, Jusken, Suse</t>
   </si>
   <si>
     <t>[???] Ru[?]fganschen [???]</t>
@@ -1432,6 +1429,9 @@
     <t>Schloap, Kinneken, Schloap</t>
   </si>
   <si>
+    <t>Schlaf, Kindchen, Schlaf</t>
+  </si>
+  <si>
     <t>Mundart der Uckermark</t>
   </si>
   <si>
@@ -1648,9 +1648,6 @@
     <t>Brunne</t>
   </si>
   <si>
-    <t>Unklar</t>
-  </si>
-  <si>
     <t>52.7672910</t>
   </si>
   <si>
@@ -1930,7 +1927,7 @@
     <t>Magdeburger Nachbarschaft Wiegenlieder und [Schnurrpiepen]</t>
   </si>
   <si>
-    <t>Koordinaten sind mittig von Kreis Kalbe(Calbe)</t>
+    <t>Koordinaten sind mittig von Kreis Kalbe(Calbe), Untertitel: Börde-Reim</t>
   </si>
   <si>
     <t>Bruthdanz</t>
@@ -2065,7 +2062,7 @@
     <t>10.6565389</t>
   </si>
   <si>
-    <t>Usen junken gnädigsten heeren un siener allerlaibesten Brut, dai öhm upp'n Schloß is anetrud, wullen mai Schierk'schen ock sau geeren en bett'n wat wünschen un seggen un dit Blaat taun Fenten leggen</t>
+    <t>Usen junken gnädigsten heeren un siener allerlaibesten Brut, dai öhm upp'n Schloß is anetrud, wullen mai Schierk'schen ock sau geeren en bett'n wat wünschen un seggen un dit Blaat taun Feuten leggen</t>
   </si>
   <si>
     <t>[Unser ????] gnädigsten [Grafen von Stolberg] und seiner allerliebsten Braut, dein[e ??] auf dem Schloß ist [???] wollen wir [??? auf ???] in betten was wünschen und [segen/sagen] und das Blatt zu füßen legen]</t>
@@ -2347,10 +2344,10 @@
     <t>spezifisch</t>
   </si>
   <si>
-    <t>Dei grote Munsterung welcke Georg de Tweite den 14. Jul. 1732 vor Hannauver heilt*.</t>
-  </si>
-  <si>
-    <t>Die große [???] welche Georg der II den 14.Juli 1732 vor Hannover hielt</t>
+    <t>Ap dei grote Munsterung welcke Georg de Tweite König von Gret-Britnnien, Frankreich un Irrland, hartog tau Bronsewig un Lüneborg, des hilligen Röm. Riecks Erz-Schatzmester un Chörfürst, den 14. Jul. 1732 vor Hannauver heilt, word düt vertelt under twen Buhren, Henie [R]olwes un Lülff Hane[?]löwe.</t>
+  </si>
+  <si>
+    <t>Auf die große [???] welche Georg der II, König von Groß-Britannien, Frankreich und Irland, Herzog [??? Braunschweig] und Lüneburg, des heiligen Rom. [???] Erz-schatzmeister und Kurfürst,  den 14.Juli 1732 vor Hannover hielt, wurde dort erzählt unter [????????]</t>
   </si>
   <si>
     <t>alle Info inkl. Titel von Schmeller Tabelle. Kein eindeutiger Titel im Buch</t>
@@ -2386,7 +2383,7 @@
     <t>Der Schäfer unter der Ecke</t>
   </si>
   <si>
-    <t xml:space="preserve">Mundart in der Aemter Winsen, Fallingbostel und Bergen in der </t>
+    <t>Mundart in der Aemter Winsen, Fallingbostel und Bergen in der</t>
   </si>
   <si>
     <t>Winsen, Fallingbostel und Lüneburg</t>
@@ -2482,6 +2479,9 @@
     <t>Der Bauer Chrischan Duse erzählt seiner Familie die Sehenswürdigkeiten des Bremer Freimarktes</t>
   </si>
   <si>
+    <t>Der Bauer Christian Duse erzählt seiner Familie die Sehenswürdigkeiten des Bremer Freimarktes</t>
+  </si>
+  <si>
     <t>Gretschen</t>
   </si>
   <si>
@@ -2527,9 +2527,6 @@
     <t>Ammerland</t>
   </si>
   <si>
-    <t>Ungenau {scheint ein Landkreis zu sein}</t>
-  </si>
-  <si>
     <t>53.2290677</t>
   </si>
   <si>
@@ -2546,6 +2543,9 @@
   </si>
   <si>
     <t>[Aper] Kirchspiellied</t>
+  </si>
+  <si>
+    <t>Der Text endet auf Seite 227, danach gäbe es aber noch eine Anmerkung die bis 228 geht</t>
   </si>
   <si>
     <t>Mundart der Stadt Oldenburg</t>
@@ -7380,10 +7380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -7414,6 +7414,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7422,7 +7438,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7437,14 +7468,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7458,16 +7489,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7482,7 +7513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7497,15 +7528,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7519,11 +7542,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7534,38 +7564,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7604,7 +7604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7616,13 +7634,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7634,163 +7796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7813,11 +7819,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7826,7 +7864,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7846,17 +7884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7879,186 +7911,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8070,13 +8076,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8422,14 +8429,15 @@
   <sheetPr/>
   <dimension ref="A1:U1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A885" workbookViewId="0">
-      <selection activeCell="T907" sqref="T907"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C900" sqref="C900:C902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23.8380952380952" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
     <col min="11" max="11" width="11" style="6"/>
+    <col min="13" max="13" width="30.1714285714286" customWidth="1"/>
     <col min="15" max="15" width="14.0666666666667" customWidth="1"/>
     <col min="16" max="16" width="13.0761904761905" customWidth="1"/>
     <col min="17" max="17" width="26.4285714285714" customWidth="1"/>
@@ -14363,19 +14371,19 @@
         <v>378</v>
       </c>
       <c r="N136" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O136" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="P136" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="Q136" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q136" s="2" t="s">
+      <c r="R136" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="S136" s="2" t="s">
         <v>376</v>
@@ -14389,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D137" s="2">
         <v>120</v>
@@ -14417,25 +14425,25 @@
         <v>369</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O137" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="P137" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="P137" s="9" t="s">
+      <c r="Q137" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="R137" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="R137" s="2" t="s">
+      <c r="S137" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="S137" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:19">
@@ -14446,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D138" s="2">
         <v>121</v>
@@ -14474,25 +14482,25 @@
         <v>369</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O138" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="P138" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="P138" s="9" t="s">
-        <v>387</v>
-      </c>
       <c r="Q138" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R138" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:19">
@@ -14503,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D139" s="2">
         <v>121</v>
@@ -14531,19 +14539,19 @@
         <v>369</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O139" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P139" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P139" s="9" t="s">
+      <c r="Q139" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="Q139" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="R139" s="2">
         <v>999</v>
@@ -14560,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D140" s="2">
         <v>121</v>
@@ -14588,25 +14596,25 @@
         <v>369</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O140" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P140" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P140" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="Q140" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:19">
@@ -14617,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D141" s="2">
         <v>122</v>
@@ -14645,25 +14653,25 @@
         <v>369</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O141" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P141" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P141" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="Q141" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="R141" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="R141" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="S141" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:19">
@@ -14674,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D142" s="2">
         <v>122</v>
@@ -14702,25 +14710,25 @@
         <v>369</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O142" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P142" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P142" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="Q142" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="R142" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="R142" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="S142" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:19">
@@ -14731,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D143" s="2">
         <v>122</v>
@@ -14759,25 +14767,25 @@
         <v>369</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O143" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P143" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P143" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="Q143" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="R143" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="R143" s="2" t="s">
+      <c r="S143" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="S143" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:19">
@@ -14788,7 +14796,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D144" s="2">
         <v>122</v>
@@ -14816,25 +14824,25 @@
         <v>369</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O144" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="P144" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="P144" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="Q144" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:19">
@@ -14845,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D145" s="2">
         <v>123</v>
@@ -14873,25 +14881,25 @@
         <v>369</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O145" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P145" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P145" s="9" t="s">
+      <c r="Q145" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="Q145" s="2" t="s">
+      <c r="R145" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="R145" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="S145" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:20">
@@ -14902,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D146" s="2">
         <v>123</v>
@@ -14930,19 +14938,19 @@
         <v>369</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O146" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P146" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P146" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="Q146" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R146" s="2">
         <v>888</v>
@@ -14960,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D147" s="2">
         <v>123</v>
@@ -14988,28 +14996,28 @@
         <v>369</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O147" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P147" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P147" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="Q147" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="R147" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="R147" s="2" t="s">
+      <c r="S147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T147" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T147" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -15020,7 +15028,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -15038,16 +15046,16 @@
         <v>22</v>
       </c>
       <c r="M148" t="s">
+        <v>415</v>
+      </c>
+      <c r="O148" t="s">
         <v>416</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>417</v>
       </c>
-      <c r="P148" t="s">
+      <c r="Q148" t="s">
         <v>418</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -15058,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -15076,13 +15084,13 @@
         <v>22</v>
       </c>
       <c r="M149" t="s">
+        <v>419</v>
+      </c>
+      <c r="O149" t="s">
         <v>420</v>
       </c>
-      <c r="O149" t="s">
+      <c r="P149" t="s">
         <v>421</v>
-      </c>
-      <c r="P149" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -15093,7 +15101,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -15111,13 +15119,13 @@
         <v>22</v>
       </c>
       <c r="M150" t="s">
+        <v>422</v>
+      </c>
+      <c r="O150" t="s">
         <v>423</v>
       </c>
-      <c r="O150" t="s">
+      <c r="P150" t="s">
         <v>424</v>
-      </c>
-      <c r="P150" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -15128,7 +15136,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D151">
         <v>4</v>
@@ -15146,13 +15154,13 @@
         <v>22</v>
       </c>
       <c r="M151" t="s">
+        <v>425</v>
+      </c>
+      <c r="O151" t="s">
         <v>426</v>
       </c>
-      <c r="O151" t="s">
+      <c r="P151" t="s">
         <v>427</v>
-      </c>
-      <c r="P151" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -15163,7 +15171,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -15181,16 +15189,16 @@
         <v>22</v>
       </c>
       <c r="M152" t="s">
+        <v>429</v>
+      </c>
+      <c r="O152" t="s">
         <v>430</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>431</v>
       </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>432</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -15201,7 +15209,7 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -15219,16 +15227,16 @@
         <v>22</v>
       </c>
       <c r="M153" t="s">
+        <v>433</v>
+      </c>
+      <c r="O153" t="s">
         <v>434</v>
       </c>
-      <c r="O153" t="s">
+      <c r="P153" t="s">
         <v>435</v>
       </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>436</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -15239,7 +15247,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -15257,13 +15265,13 @@
         <v>22</v>
       </c>
       <c r="M154" t="s">
+        <v>438</v>
+      </c>
+      <c r="O154" t="s">
         <v>439</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>440</v>
-      </c>
-      <c r="P154" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -15274,7 +15282,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D155">
         <v>13</v>
@@ -15292,13 +15300,13 @@
         <v>22</v>
       </c>
       <c r="M155" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O155" t="s">
+        <v>442</v>
+      </c>
+      <c r="P155" t="s">
         <v>443</v>
-      </c>
-      <c r="P155" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:19">
@@ -15309,7 +15317,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D156" s="2">
         <v>124</v>
@@ -15337,25 +15345,25 @@
         <v>369</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O156" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P156" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P156" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="Q156" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:19">
@@ -15366,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D157" s="2">
         <v>124</v>
@@ -15394,22 +15402,22 @@
         <v>369</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O157" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P157" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P157" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="Q157" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="R157" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="R157" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="S157" s="2" t="s">
         <v>376</v>
@@ -15423,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D158" s="2">
         <v>124</v>
@@ -15451,25 +15459,25 @@
         <v>369</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O158" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="P158" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="P158" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="Q158" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="R158" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="R158" s="2" t="s">
+      <c r="S158" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="S158" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:19">
@@ -15480,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D159" s="2">
         <v>125</v>
@@ -15508,25 +15516,25 @@
         <v>369</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O159" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="P159" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="P159" s="9" t="s">
+      <c r="Q159" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="Q159" s="2" t="s">
+      <c r="R159" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="R159" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="S159" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:19">
@@ -15537,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D160" s="2">
         <v>125</v>
@@ -15565,25 +15573,25 @@
         <v>369</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N160" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O160" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="P160" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="P160" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="Q160" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="R160" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="R160" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="S160" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:19">
@@ -15594,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D161" s="2">
         <v>125</v>
@@ -15622,25 +15630,25 @@
         <v>369</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O161" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="P161" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="P161" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="Q161" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R161" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="R161" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="S161" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:20">
@@ -15651,7 +15659,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D162" s="2">
         <v>125</v>
@@ -15679,25 +15687,25 @@
         <v>369</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O162" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P162" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="P162" s="9" t="s">
+      <c r="Q162" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="Q162" s="2" t="s">
+      <c r="R162" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="R162" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="S162" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T162" s="10"/>
     </row>
@@ -15709,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D163" s="2">
         <v>126</v>
@@ -15737,25 +15745,25 @@
         <v>369</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O163" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P163" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="P163" s="9" t="s">
+      <c r="Q163" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="Q163" s="2" t="s">
+      <c r="R163" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="R163" s="2">
-        <v>888</v>
-      </c>
       <c r="S163" s="2">
-        <v>888</v>
+        <v>999</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:20">
@@ -15812,7 +15820,7 @@
         <v>477</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T164" s="2" t="s">
         <v>478</v>
@@ -15872,7 +15880,7 @@
         <v>480</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T165" s="2" t="s">
         <v>481</v>
@@ -15926,13 +15934,13 @@
         <v>475</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R166" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:19">
@@ -15989,7 +15997,7 @@
         <v>483</v>
       </c>
       <c r="S167" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:19">
@@ -16046,7 +16054,7 @@
         <v>489</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:19">
@@ -16211,13 +16219,13 @@
         <v>487</v>
       </c>
       <c r="Q171" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="R171" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="R171" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="S171" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:19">
@@ -16268,13 +16276,13 @@
         <v>487</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R172" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" spans="1:20">
@@ -16331,7 +16339,7 @@
         <v>497</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T173" s="2" t="s">
         <v>498</v>
@@ -16391,7 +16399,7 @@
         <v>500</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T174" s="2" t="s">
         <v>498</v>
@@ -16451,7 +16459,7 @@
         <v>502</v>
       </c>
       <c r="S175" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T175" s="2" t="s">
         <v>498</v>
@@ -16511,7 +16519,7 @@
         <v>508</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T176" s="2" t="s">
         <v>498</v>
@@ -16571,7 +16579,7 @@
         <v>511</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T177" s="2" t="s">
         <v>498</v>
@@ -16631,7 +16639,7 @@
         <v>513</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T178" s="2" t="s">
         <v>514</v>
@@ -16691,7 +16699,7 @@
         <v>516</v>
       </c>
       <c r="S179" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T179" s="2" t="s">
         <v>498</v>
@@ -16751,7 +16759,7 @@
         <v>518</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T180" s="2" t="s">
         <v>498</v>
@@ -16811,7 +16819,7 @@
         <v>520</v>
       </c>
       <c r="S181" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T181" s="2" t="s">
         <v>498</v>
@@ -16871,7 +16879,7 @@
         <v>521</v>
       </c>
       <c r="S182" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T182" s="2" t="s">
         <v>498</v>
@@ -16931,7 +16939,7 @@
         <v>523</v>
       </c>
       <c r="S183" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T183" s="2" t="s">
         <v>498</v>
@@ -16991,7 +16999,7 @@
         <v>530</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T184" s="2" t="s">
         <v>531</v>
@@ -17111,7 +17119,7 @@
         <v>541</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" spans="1:19">
@@ -17153,22 +17161,22 @@
         <v>543</v>
       </c>
       <c r="N187" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O187" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="O187" s="9" t="s">
+      <c r="P187" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="P187" s="9" t="s">
+      <c r="Q187" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="Q187" s="2" t="s">
+      <c r="R187" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="R187" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="S187" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" spans="1:19">
@@ -17179,7 +17187,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D188" s="2">
         <v>144</v>
@@ -17207,25 +17215,25 @@
         <v>369</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O188" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="P188" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="P188" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="Q188" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="R188" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="R188" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="S188" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:19">
@@ -17236,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D189" s="2">
         <v>144</v>
@@ -17264,25 +17272,25 @@
         <v>369</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O189" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="P189" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="P189" s="9" t="s">
+      <c r="Q189" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="Q189" s="2" t="s">
+      <c r="R189" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="R189" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="S189" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:19">
@@ -17293,7 +17301,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D190" s="2">
         <v>144</v>
@@ -17321,25 +17329,25 @@
         <v>369</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O190" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="P190" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="P190" s="9" t="s">
-        <v>556</v>
-      </c>
       <c r="Q190" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="R190" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="R190" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="S190" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:19">
@@ -17350,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D191" s="2">
         <v>144</v>
@@ -17378,25 +17386,25 @@
         <v>369</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O191" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="P191" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="P191" s="9" t="s">
-        <v>556</v>
-      </c>
       <c r="Q191" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="R191" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="R191" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="S191" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:19">
@@ -17407,7 +17415,7 @@
         <v>1</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D192" s="2">
         <v>145</v>
@@ -17435,25 +17443,25 @@
         <v>369</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O192" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="P192" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="P192" s="9" t="s">
+      <c r="Q192" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="Q192" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="R192" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S192" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:21">
@@ -17464,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D193" s="2">
         <v>145</v>
@@ -17492,27 +17500,27 @@
         <v>369</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O193" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="P193" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="P193" s="9" t="s">
-        <v>571</v>
-      </c>
       <c r="Q193" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R193" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="U193" s="11"/>
+        <v>389</v>
+      </c>
+      <c r="U193" s="12"/>
     </row>
     <row r="194" s="2" customFormat="1" spans="1:19">
       <c r="A194" s="2">
@@ -17522,7 +17530,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D194" s="2">
         <v>145</v>
@@ -17550,25 +17558,25 @@
         <v>369</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O194" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="P194" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="P194" s="9" t="s">
+      <c r="Q194" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="Q194" s="2" t="s">
+      <c r="R194" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="R194" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="S194" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:19">
@@ -17579,7 +17587,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D195" s="2">
         <v>147</v>
@@ -17607,19 +17615,19 @@
         <v>369</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O195" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="P195" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="P195" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="Q195" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R195" s="2">
         <v>999</v>
@@ -17636,7 +17644,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D196" s="2">
         <v>147</v>
@@ -17664,25 +17672,25 @@
         <v>369</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O196" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="P196" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="P196" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="Q196" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="R196" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="R196" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="S196" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" spans="1:19">
@@ -17693,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D197" s="2">
         <v>148</v>
@@ -17721,25 +17729,25 @@
         <v>369</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O197" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="P197" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="P197" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="Q197" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R197" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:19">
@@ -17750,7 +17758,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D198" s="2">
         <v>153</v>
@@ -17778,25 +17786,25 @@
         <v>369</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O198" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="P198" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="P198" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="Q198" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="R198" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="R198" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="S198" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" spans="1:20">
@@ -17807,7 +17815,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D199" s="2">
         <v>154</v>
@@ -17834,29 +17842,29 @@
       <c r="L199" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M199" s="2" t="s">
-        <v>585</v>
+      <c r="M199" s="11" t="s">
+        <v>584</v>
       </c>
       <c r="N199" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O199" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="P199" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="P199" s="9" t="s">
+      <c r="Q199" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="Q199" s="2" t="s">
+      <c r="R199" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="R199" s="2" t="s">
+      <c r="S199" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T199" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="S199" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T199" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:19">
@@ -17867,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D200" s="2">
         <v>154</v>
@@ -17895,25 +17903,25 @@
         <v>369</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O200" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P200" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="P200" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="Q200" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R200" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" spans="1:19">
@@ -17924,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D201" s="2">
         <v>154</v>
@@ -17952,25 +17960,25 @@
         <v>369</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O201" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="P201" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="P201" s="9" t="s">
+      <c r="Q201" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="Q201" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="R201" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="S201" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:20">
@@ -17981,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D202" s="2">
         <v>155</v>
@@ -18009,28 +18017,28 @@
         <v>369</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N202" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="O202" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="O202" s="9" t="s">
+      <c r="P202" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="P202" s="9" t="s">
+      <c r="Q202" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="Q202" s="2" t="s">
+      <c r="R202" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="R202" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="S202" s="2" t="s">
         <v>376</v>
       </c>
       <c r="T202" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:20">
@@ -18041,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D203" s="2">
         <v>155</v>
@@ -18069,28 +18077,28 @@
         <v>369</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O203" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="P203" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="P203" s="9" t="s">
+      <c r="Q203" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="Q203" s="2" t="s">
+      <c r="R203" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="R203" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="S203" s="2" t="s">
         <v>376</v>
       </c>
       <c r="T203" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" spans="1:19">
@@ -18101,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D204" s="2">
         <v>155</v>
@@ -18129,25 +18137,25 @@
         <v>369</v>
       </c>
       <c r="M204" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O204" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="N204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O204" s="9" t="s">
+      <c r="P204" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="P204" s="9" t="s">
+      <c r="Q204" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="Q204" s="2" t="s">
+      <c r="R204" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="R204" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="S204" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" spans="1:19">
@@ -18158,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D205" s="2">
         <v>156</v>
@@ -18186,25 +18194,25 @@
         <v>369</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O205" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="P205" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="P205" s="9" t="s">
+      <c r="Q205" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="Q205" s="2" t="s">
+      <c r="R205" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="R205" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="S205" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="1" spans="1:20">
@@ -18215,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D206" s="2">
         <v>156</v>
@@ -18243,28 +18251,28 @@
         <v>369</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O206" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="P206" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="P206" s="9" t="s">
-        <v>619</v>
-      </c>
       <c r="Q206" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="R206" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="R206" s="2" t="s">
+      <c r="S206" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T206" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="S206" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T206" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="1" spans="1:19">
@@ -18275,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D207" s="2">
         <v>157</v>
@@ -18303,25 +18311,25 @@
         <v>369</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O207" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="P207" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="P207" s="9" t="s">
+      <c r="Q207" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="Q207" s="2" t="s">
+      <c r="R207" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="R207" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="S207" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" spans="1:19">
@@ -18332,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D208" s="2">
         <v>160</v>
@@ -18360,25 +18368,25 @@
         <v>369</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O208" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="P208" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="P208" s="9" t="s">
-        <v>628</v>
-      </c>
       <c r="Q208" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="R208" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="R208" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="S208" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" spans="1:20">
@@ -18389,7 +18397,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D209" s="2">
         <v>162</v>
@@ -18417,28 +18425,28 @@
         <v>369</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O209" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="P209" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="P209" s="9" t="s">
+      <c r="Q209" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="Q209" s="2" t="s">
+      <c r="R209" s="10" t="s">
         <v>636</v>
-      </c>
-      <c r="R209" s="10" t="s">
-        <v>637</v>
       </c>
       <c r="S209" s="2" t="s">
         <v>376</v>
       </c>
       <c r="T209" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" spans="1:19">
@@ -18449,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D210" s="2">
         <v>165</v>
@@ -18477,25 +18485,25 @@
         <v>369</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N210" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O210" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="P210" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="P210" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="Q210" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="R210" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="R210" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="S210" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" spans="1:19">
@@ -18506,7 +18514,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D211" s="2">
         <v>165</v>
@@ -18534,25 +18542,25 @@
         <v>369</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N211" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O211" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="P211" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="P211" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="Q211" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="R211" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="R211" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="S211" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" spans="1:19">
@@ -18563,7 +18571,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D212" s="2">
         <v>167</v>
@@ -18591,22 +18599,22 @@
         <v>369</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>371</v>
       </c>
       <c r="O212" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="P212" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="P212" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="Q212" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="R212" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="R212" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="S212" s="2" t="s">
         <v>376</v>
@@ -18620,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D213" s="2">
         <v>168</v>
@@ -18648,25 +18656,25 @@
         <v>369</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O213" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="P213" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="P213" s="9" t="s">
+      <c r="Q213" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="Q213" s="2" t="s">
+      <c r="R213" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="R213" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="S213" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" spans="1:19">
@@ -18677,7 +18685,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D214" s="2">
         <v>168</v>
@@ -18705,25 +18713,25 @@
         <v>369</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O214" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="P214" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="P214" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="Q214" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R214" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S214" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" spans="1:20">
@@ -18734,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D215" s="2">
         <v>169</v>
@@ -18758,20 +18766,20 @@
         <v>22</v>
       </c>
       <c r="K215" s="8"/>
-      <c r="L215" s="2">
-        <v>999</v>
+      <c r="L215" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="M215" s="2">
         <v>999</v>
       </c>
-      <c r="N215" s="2">
-        <v>999</v>
+      <c r="N215" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="O215" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="P215" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="P215" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="Q215" s="2">
         <v>999</v>
@@ -18783,7 +18791,7 @@
         <v>999</v>
       </c>
       <c r="T215" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" spans="1:19">
@@ -18794,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D216" s="2">
         <v>170</v>
@@ -18822,22 +18830,22 @@
         <v>369</v>
       </c>
       <c r="M216" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O216" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="N216" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O216" s="9" t="s">
+      <c r="P216" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="P216" s="9" t="s">
+      <c r="Q216" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="Q216" s="2" t="s">
+      <c r="R216" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="R216" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="S216" s="2" t="s">
         <v>376</v>
@@ -18851,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D217" s="2">
         <v>170</v>
@@ -18879,25 +18887,25 @@
         <v>369</v>
       </c>
       <c r="M217" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="N217" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O217" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="N217" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O217" s="9" t="s">
+      <c r="P217" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="P217" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="Q217" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="R217" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="R217" s="2" t="s">
-        <v>664</v>
-      </c>
       <c r="S217" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" spans="1:19">
@@ -18908,7 +18916,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D218" s="2">
         <v>171</v>
@@ -18936,25 +18944,25 @@
         <v>369</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O218" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="P218" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="P218" s="9" t="s">
+      <c r="Q218" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="Q218" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="R218" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S218" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" spans="1:20">
@@ -18965,7 +18973,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D219" s="2">
         <v>171</v>
@@ -18993,28 +19001,28 @@
         <v>369</v>
       </c>
       <c r="M219" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O219" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="N219" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O219" s="9" t="s">
+      <c r="P219" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="P219" s="9" t="s">
+      <c r="Q219" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="Q219" s="2" t="s">
+      <c r="R219" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="R219" s="2" t="s">
+      <c r="S219" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T219" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="S219" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T219" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:19">
@@ -19025,7 +19033,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D220" s="2">
         <v>172</v>
@@ -19053,25 +19061,25 @@
         <v>369</v>
       </c>
       <c r="M220" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O220" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="N220" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O220" s="9" t="s">
+      <c r="P220" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="P220" s="9" t="s">
-        <v>673</v>
-      </c>
       <c r="Q220" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="R220" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="R220" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="S220" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:19">
@@ -19082,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D221" s="2">
         <v>172</v>
@@ -19110,25 +19118,25 @@
         <v>369</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O221" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="P221" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="P221" s="9" t="s">
+      <c r="Q221" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="Q221" s="2" t="s">
+      <c r="R221" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="R221" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="S221" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" spans="1:20">
@@ -19139,7 +19147,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D222" s="2">
         <v>173</v>
@@ -19167,28 +19175,28 @@
         <v>369</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O222" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="P222" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="P222" s="9" t="s">
+      <c r="Q222" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="Q222" s="2" t="s">
+      <c r="R222" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="R222" s="2" t="s">
+      <c r="S222" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="T222" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="S222" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="T222" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" spans="1:20">
@@ -19199,7 +19207,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D223" s="2">
         <v>175</v>
@@ -19227,19 +19235,19 @@
         <v>369</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O223" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="P223" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P223" s="2" t="s">
+      <c r="Q223" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="Q223" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="R223" s="2">
         <v>999</v>
@@ -19248,7 +19256,7 @@
         <v>999</v>
       </c>
       <c r="T223" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" spans="1:20">
@@ -19259,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D224" s="2">
         <v>177</v>
@@ -19287,28 +19295,28 @@
         <v>369</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O224" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="P224" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P224" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="Q224" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="R224" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="R224" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="S224" s="2" t="s">
         <v>376</v>
       </c>
       <c r="T224" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" spans="1:20">
@@ -19319,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D225" s="2">
         <v>178</v>
@@ -19347,28 +19355,28 @@
         <v>369</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N225" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O225" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="P225" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P225" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="Q225" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="R225" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="R225" s="2" t="s">
+      <c r="S225" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="T225" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="S225" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="T225" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" spans="1:19">
@@ -19379,7 +19387,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D226" s="2">
         <v>179</v>
@@ -19407,25 +19415,25 @@
         <v>369</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N226" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O226" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="P226" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P226" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="Q226" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="R226" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="R226" s="2" t="s">
+      <c r="S226" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="S226" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" spans="1:20">
@@ -19436,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D227" s="2">
         <v>182</v>
@@ -19464,28 +19472,28 @@
         <v>369</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N227" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O227" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="P227" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="P227" s="2" t="s">
+      <c r="Q227" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="Q227" s="2" t="s">
+      <c r="R227" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="R227" s="2" t="s">
+      <c r="S227" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="S227" s="2" t="s">
+      <c r="T227" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="T227" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" spans="1:19">
@@ -19496,7 +19504,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D228" s="2">
         <v>183</v>
@@ -19524,25 +19532,25 @@
         <v>369</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N228" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O228" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="P228" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="P228" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="Q228" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="R228" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="R228" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="S228" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" spans="1:19">
@@ -19553,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D229" s="2">
         <v>184</v>
@@ -19581,16 +19589,16 @@
         <v>369</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O229" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="P229" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="P229" s="9" t="s">
-        <v>718</v>
       </c>
       <c r="Q229" s="2" t="s">
         <v>521</v>
@@ -19599,7 +19607,7 @@
         <v>521</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" spans="1:20">
@@ -19610,7 +19618,7 @@
         <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D230" s="2">
         <v>185</v>
@@ -19638,28 +19646,28 @@
         <v>369</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O230" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="P230" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="P230" s="9" t="s">
+      <c r="Q230" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="Q230" s="2" t="s">
+      <c r="R230" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="R230" s="2" t="s">
+      <c r="S230" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="T230" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="S230" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="T230" s="2" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" spans="1:19">
@@ -19670,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D231" s="2">
         <v>185</v>
@@ -19698,25 +19706,25 @@
         <v>369</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O231" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="P231" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="P231" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="Q231" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="R231" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="R231" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="S231" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" spans="1:19">
@@ -19727,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D232" s="2">
         <v>186</v>
@@ -19755,25 +19763,25 @@
         <v>369</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O232" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="P232" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="P232" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="Q232" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="R232" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" spans="1:20">
@@ -19784,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D233" s="2">
         <v>186</v>
@@ -19812,28 +19820,28 @@
         <v>369</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O233" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="P233" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="P233" s="2" t="s">
+      <c r="Q233" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="Q233" s="2" t="s">
+      <c r="R233" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="R233" s="2" t="s">
+      <c r="S233" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="T233" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="S233" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="T233" s="2" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="234" s="2" customFormat="1" spans="1:19">
@@ -19844,7 +19852,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D234" s="2">
         <v>187</v>
@@ -19872,22 +19880,22 @@
         <v>369</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O234" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="P234" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="P234" s="2" t="s">
-        <v>728</v>
-      </c>
       <c r="Q234" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="R234" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="R234" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="S234" s="2" t="s">
         <v>376</v>
@@ -19901,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D235" s="2">
         <v>187</v>
@@ -19929,25 +19937,25 @@
         <v>369</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O235" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="P235" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="P235" s="2" t="s">
-        <v>728</v>
-      </c>
       <c r="Q235" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="R235" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="R235" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="S235" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" s="2" customFormat="1" spans="1:19">
@@ -19958,7 +19966,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D236" s="2">
         <v>187</v>
@@ -19986,25 +19994,25 @@
         <v>369</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O236" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="P236" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="P236" s="2" t="s">
-        <v>728</v>
-      </c>
       <c r="Q236" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="R236" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="R236" s="2" t="s">
-        <v>737</v>
-      </c>
       <c r="S236" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" ht="15.75" spans="1:20">
@@ -20015,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D237" s="2">
         <v>188</v>
@@ -20043,28 +20051,28 @@
         <v>369</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N237" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O237" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P237" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P237" s="9" t="s">
+      <c r="Q237" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="Q237" s="12" t="s">
+      <c r="R237" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="R237" s="2" t="s">
+      <c r="S237" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T237" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="S237" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T237" s="2" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="238" s="2" customFormat="1" spans="1:19">
@@ -20075,7 +20083,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D238" s="2">
         <v>189</v>
@@ -20103,25 +20111,25 @@
         <v>369</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N238" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O238" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P238" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P238" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q238" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="R238" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="R238" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="S238" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" spans="1:19">
@@ -20132,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D239" s="2">
         <v>190</v>
@@ -20160,25 +20168,25 @@
         <v>369</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N239" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O239" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P239" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P239" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q239" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="R239" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="R239" s="2" t="s">
-        <v>748</v>
-      </c>
       <c r="S239" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" spans="1:19">
@@ -20189,7 +20197,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D240" s="2">
         <v>190</v>
@@ -20217,25 +20225,25 @@
         <v>369</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N240" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O240" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P240" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P240" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q240" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="R240" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="R240" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="S240" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" spans="1:19">
@@ -20246,7 +20254,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D241" s="2">
         <v>190</v>
@@ -20274,25 +20282,25 @@
         <v>369</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O241" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P241" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P241" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q241" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="R241" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="R241" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="S241" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" spans="1:19">
@@ -20303,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D242" s="2">
         <v>191</v>
@@ -20331,25 +20339,25 @@
         <v>369</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N242" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O242" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P242" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P242" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q242" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="R242" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="R242" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="S242" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" spans="1:19">
@@ -20360,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D243" s="2">
         <v>192</v>
@@ -20388,25 +20396,25 @@
         <v>369</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N243" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O243" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P243" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P243" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q243" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="R243" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="R243" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="S243" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" spans="1:19">
@@ -20417,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D244" s="2">
         <v>193</v>
@@ -20445,25 +20453,25 @@
         <v>369</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N244" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O244" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P244" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="P244" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="Q244" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S244" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" spans="1:19">
@@ -20474,7 +20482,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D245" s="2">
         <v>193</v>
@@ -20502,25 +20510,25 @@
         <v>369</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N245" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O245" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="P245" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="P245" s="9" t="s">
+      <c r="Q245" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="Q245" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="R245" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S245" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" spans="1:19">
@@ -20531,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D246" s="2">
         <v>194</v>
@@ -20559,25 +20567,25 @@
         <v>369</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N246" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O246" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="P246" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="P246" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="Q246" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="R246" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="R246" s="2" t="s">
-        <v>764</v>
-      </c>
       <c r="S246" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" spans="1:19">
@@ -20588,7 +20596,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D247" s="2">
         <v>199</v>
@@ -20616,25 +20624,25 @@
         <v>369</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O247" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="P247" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="P247" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="Q247" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="R247" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="R247" s="2" t="s">
-        <v>766</v>
-      </c>
       <c r="S247" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" spans="1:19">
@@ -20645,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D248" s="2">
         <v>200</v>
@@ -20673,25 +20681,25 @@
         <v>369</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O248" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="P248" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="P248" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="Q248" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="S248" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" spans="1:19">
@@ -20702,7 +20710,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D249" s="2">
         <v>201</v>
@@ -20730,25 +20738,25 @@
         <v>369</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O249" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="P249" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="P249" s="9" t="s">
+      <c r="Q249" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="Q249" s="2" t="s">
+      <c r="R249" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="R249" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="S249" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" spans="1:19">
@@ -20759,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D250" s="2">
         <v>203</v>
@@ -20787,19 +20795,19 @@
         <v>369</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O250" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="P250" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="P250" s="9" t="s">
-        <v>771</v>
-      </c>
       <c r="Q250" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R250" s="2">
         <v>999</v>
@@ -20816,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D251" s="2">
         <v>204</v>
@@ -20844,28 +20852,28 @@
         <v>369</v>
       </c>
       <c r="M251" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="O251" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="N251" s="2" t="s">
+      <c r="P251" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q251" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="O251" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="P251" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q251" s="2" t="s">
+      <c r="R251" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="R251" s="2" t="s">
+      <c r="S251" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="T251" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="S251" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="T251" s="2" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" spans="1:19">
@@ -20876,7 +20884,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D252" s="2">
         <v>205</v>
@@ -20904,25 +20912,25 @@
         <v>369</v>
       </c>
       <c r="M252" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O252" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="N252" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O252" s="9" t="s">
+      <c r="P252" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="P252" s="9" t="s">
+      <c r="Q252" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="Q252" s="2" t="s">
+      <c r="R252" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="R252" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="S252" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" spans="1:19">
@@ -20933,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D253" s="2">
         <v>206</v>
@@ -20961,25 +20969,25 @@
         <v>369</v>
       </c>
       <c r="M253" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O253" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="N253" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O253" s="9" t="s">
+      <c r="P253" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="P253" s="9" t="s">
-        <v>783</v>
-      </c>
       <c r="Q253" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="R253" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="R253" s="2" t="s">
-        <v>787</v>
-      </c>
       <c r="S253" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" spans="1:19">
@@ -20990,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D254" s="2">
         <v>206</v>
@@ -21018,25 +21026,25 @@
         <v>369</v>
       </c>
       <c r="M254" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O254" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="N254" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O254" s="9" t="s">
+      <c r="P254" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="P254" s="9" t="s">
-        <v>783</v>
-      </c>
       <c r="Q254" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="R254" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="R254" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="S254" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" spans="1:20">
@@ -21047,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D255" s="2">
         <v>207</v>
@@ -21075,28 +21083,28 @@
         <v>369</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N255" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O255" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P255" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="P255" s="2" t="s">
+      <c r="Q255" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="Q255" s="2" t="s">
+      <c r="R255" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="S255" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T255" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="R255" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="S255" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T255" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" spans="1:19">
@@ -21107,7 +21115,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D256" s="2">
         <v>207</v>
@@ -21135,25 +21143,25 @@
         <v>369</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N256" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O256" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P256" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="P256" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="Q256" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="R256" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="R256" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="S256" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" spans="1:19">
@@ -21164,7 +21172,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D257" s="2">
         <v>208</v>
@@ -21192,25 +21200,25 @@
         <v>369</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N257" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O257" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P257" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="P257" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="Q257" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="R257" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="R257" s="2" t="s">
-        <v>799</v>
-      </c>
       <c r="S257" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" spans="1:19">
@@ -21221,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D258" s="2">
         <v>208</v>
@@ -21249,25 +21257,25 @@
         <v>369</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N258" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O258" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P258" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="P258" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="Q258" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R258" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S258" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" spans="1:19">
@@ -21278,7 +21286,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D259" s="2">
         <v>209</v>
@@ -21306,25 +21314,25 @@
         <v>369</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N259" s="2" t="s">
         <v>526</v>
       </c>
       <c r="O259" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P259" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="P259" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="Q259" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="R259" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="R259" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="S259" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" spans="1:19">
@@ -21335,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D260" s="2">
         <v>210</v>
@@ -21363,25 +21371,25 @@
         <v>369</v>
       </c>
       <c r="M260" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="N260" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O260" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="N260" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O260" s="9" t="s">
+      <c r="P260" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="P260" s="9" t="s">
+      <c r="Q260" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="Q260" s="2" t="s">
+      <c r="R260" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="R260" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="S260" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" spans="1:19">
@@ -21392,7 +21400,7 @@
         <v>1</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D261" s="2">
         <v>212</v>
@@ -21420,25 +21428,25 @@
         <v>369</v>
       </c>
       <c r="M261" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="N261" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O261" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="N261" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O261" s="9" t="s">
+      <c r="P261" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="P261" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="Q261" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="R261" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="R261" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="S261" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" spans="1:19">
@@ -21449,7 +21457,7 @@
         <v>1</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D262" s="2">
         <v>214</v>
@@ -21477,25 +21485,25 @@
         <v>369</v>
       </c>
       <c r="M262" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O262" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="N262" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O262" s="9" t="s">
+      <c r="P262" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="P262" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="Q262" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="R262" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="R262" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="S262" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" spans="1:19">
@@ -21506,7 +21514,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D263" s="2">
         <v>216</v>
@@ -21534,25 +21542,25 @@
         <v>369</v>
       </c>
       <c r="M263" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O263" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O263" s="9" t="s">
+      <c r="P263" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="P263" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="Q263" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="R263" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="R263" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="S263" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" spans="1:19">
@@ -21563,7 +21571,7 @@
         <v>1</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D264" s="2">
         <v>216</v>
@@ -21591,25 +21599,25 @@
         <v>369</v>
       </c>
       <c r="M264" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="N264" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O264" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O264" s="9" t="s">
+      <c r="P264" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="P264" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="Q264" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="R264" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="R264" s="2" t="s">
-        <v>816</v>
-      </c>
       <c r="S264" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" spans="1:19">
@@ -21620,7 +21628,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D265" s="2">
         <v>217</v>
@@ -21648,25 +21656,25 @@
         <v>369</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O265" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="P265" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="P265" s="9" t="s">
+      <c r="Q265" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="Q265" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="R265" s="2" t="s">
         <v>821</v>
       </c>
       <c r="S265" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" spans="1:19">
@@ -21677,7 +21685,7 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D266" s="2">
         <v>220</v>
@@ -21705,16 +21713,16 @@
         <v>369</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O266" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="P266" s="9" t="s">
         <v>819</v>
-      </c>
-      <c r="P266" s="9" t="s">
-        <v>820</v>
       </c>
       <c r="Q266" s="2" t="s">
         <v>822</v>
@@ -21723,7 +21731,7 @@
         <v>822</v>
       </c>
       <c r="S266" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" spans="1:19">
@@ -21734,7 +21742,7 @@
         <v>1</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D267" s="2">
         <v>221</v>
@@ -21762,16 +21770,16 @@
         <v>369</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O267" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="P267" s="9" t="s">
         <v>819</v>
-      </c>
-      <c r="P267" s="9" t="s">
-        <v>820</v>
       </c>
       <c r="Q267" s="2" t="s">
         <v>823</v>
@@ -21780,7 +21788,7 @@
         <v>823</v>
       </c>
       <c r="S267" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" spans="1:19">
@@ -21822,7 +21830,7 @@
         <v>825</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="O268" s="9" t="s">
         <v>826</v>
@@ -21879,7 +21887,7 @@
         <v>825</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="O269" s="9" t="s">
         <v>826</v>
@@ -21894,7 +21902,7 @@
         <v>831</v>
       </c>
       <c r="S269" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" spans="1:19">
@@ -21936,7 +21944,7 @@
         <v>825</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="O270" s="9" t="s">
         <v>826</v>
@@ -21951,7 +21959,7 @@
         <v>833</v>
       </c>
       <c r="S270" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" spans="1:20">
@@ -21993,19 +22001,19 @@
         <v>836</v>
       </c>
       <c r="N271" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O271" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="O271" s="9" t="s">
+      <c r="P271" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="P271" s="9" t="s">
+      <c r="Q271" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="Q271" s="2" t="s">
+      <c r="R271" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="R271" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="S271" s="2" t="s">
         <v>376</v>
@@ -22014,7 +22022,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="1" spans="1:19">
+    <row r="272" s="2" customFormat="1" spans="1:20">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -22024,10 +22032,10 @@
       <c r="C272" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="4">
         <v>227</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="4">
         <v>228</v>
       </c>
       <c r="F272" s="2">
@@ -22053,22 +22061,25 @@
         <v>836</v>
       </c>
       <c r="N272" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O272" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="O272" s="9" t="s">
+      <c r="P272" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="P272" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="Q272" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="R272" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="R272" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="S272" s="2" t="s">
         <v>376</v>
+      </c>
+      <c r="T272" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" spans="1:19">
@@ -22125,7 +22136,7 @@
         <v>849</v>
       </c>
       <c r="S273" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" spans="1:19">
@@ -22167,7 +22178,7 @@
         <v>845</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="O274" s="2" t="s">
         <v>851</v>
@@ -22182,7 +22193,7 @@
         <v>854</v>
       </c>
       <c r="S274" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" spans="1:20">
@@ -22276,7 +22287,7 @@
       <c r="J276" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K276" s="13"/>
+      <c r="K276" s="14"/>
       <c r="M276" s="3" t="s">
         <v>845</v>
       </c>
@@ -22318,7 +22329,7 @@
       <c r="J277" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K277" s="13"/>
+      <c r="K277" s="14"/>
       <c r="M277" s="3" t="s">
         <v>845</v>
       </c>
@@ -22360,7 +22371,7 @@
       <c r="J278" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K278" s="13"/>
+      <c r="K278" s="14"/>
       <c r="M278" s="3" t="s">
         <v>845</v>
       </c>
@@ -22402,7 +22413,7 @@
       <c r="J279" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K279" s="13"/>
+      <c r="K279" s="14"/>
       <c r="M279" s="3" t="s">
         <v>845</v>
       </c>
@@ -22444,7 +22455,7 @@
       <c r="J280" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K280" s="13"/>
+      <c r="K280" s="14"/>
       <c r="M280" s="3" t="s">
         <v>845</v>
       </c>
@@ -22486,7 +22497,7 @@
       <c r="J281" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K281" s="13"/>
+      <c r="K281" s="14"/>
       <c r="M281" s="3" t="s">
         <v>845</v>
       </c>
@@ -22528,7 +22539,7 @@
       <c r="J282" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K282" s="13"/>
+      <c r="K282" s="14"/>
       <c r="M282" s="3" t="s">
         <v>845</v>
       </c>
@@ -22570,7 +22581,7 @@
       <c r="J283" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K283" s="13"/>
+      <c r="K283" s="14"/>
       <c r="M283" s="3" t="s">
         <v>845</v>
       </c>
@@ -22612,7 +22623,7 @@
       <c r="J284" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K284" s="13"/>
+      <c r="K284" s="14"/>
       <c r="M284" s="3" t="s">
         <v>845</v>
       </c>
@@ -22654,7 +22665,7 @@
       <c r="J285" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K285" s="13"/>
+      <c r="K285" s="14"/>
       <c r="M285" s="3" t="s">
         <v>845</v>
       </c>
@@ -22696,7 +22707,7 @@
       <c r="J286" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K286" s="13"/>
+      <c r="K286" s="14"/>
       <c r="M286" s="3" t="s">
         <v>860</v>
       </c>
@@ -22738,7 +22749,7 @@
       <c r="J287" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K287" s="13"/>
+      <c r="K287" s="14"/>
       <c r="M287" s="3" t="s">
         <v>860</v>
       </c>
@@ -22780,7 +22791,7 @@
       <c r="J288" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K288" s="13"/>
+      <c r="K288" s="14"/>
       <c r="M288" s="3" t="s">
         <v>860</v>
       </c>
@@ -22822,7 +22833,7 @@
       <c r="J289" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K289" s="13"/>
+      <c r="K289" s="14"/>
       <c r="M289" s="3" t="s">
         <v>860</v>
       </c>
@@ -22864,7 +22875,7 @@
       <c r="J290" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K290" s="13"/>
+      <c r="K290" s="14"/>
       <c r="M290" s="3" t="s">
         <v>864</v>
       </c>
@@ -22906,7 +22917,7 @@
       <c r="J291" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K291" s="13"/>
+      <c r="K291" s="14"/>
       <c r="M291" s="3" t="s">
         <v>868</v>
       </c>
@@ -22948,7 +22959,7 @@
       <c r="J292" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K292" s="13"/>
+      <c r="K292" s="14"/>
       <c r="M292" s="3" t="s">
         <v>872</v>
       </c>
@@ -22990,7 +23001,7 @@
       <c r="J293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K293" s="13"/>
+      <c r="K293" s="14"/>
       <c r="M293" s="3" t="s">
         <v>872</v>
       </c>
@@ -23032,7 +23043,7 @@
       <c r="J294" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K294" s="13"/>
+      <c r="K294" s="14"/>
       <c r="M294" s="3" t="s">
         <v>872</v>
       </c>
@@ -23074,7 +23085,7 @@
       <c r="J295" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K295" s="13"/>
+      <c r="K295" s="14"/>
       <c r="M295" s="3" t="s">
         <v>872</v>
       </c>
@@ -23116,7 +23127,7 @@
       <c r="J296" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K296" s="13"/>
+      <c r="K296" s="14"/>
       <c r="M296" s="3" t="s">
         <v>872</v>
       </c>
@@ -23158,7 +23169,7 @@
       <c r="J297" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K297" s="13"/>
+      <c r="K297" s="14"/>
       <c r="M297" s="3" t="s">
         <v>872</v>
       </c>
@@ -23200,7 +23211,7 @@
       <c r="J298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K298" s="13"/>
+      <c r="K298" s="14"/>
       <c r="M298" s="3" t="s">
         <v>872</v>
       </c>
@@ -23242,7 +23253,7 @@
       <c r="J299" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K299" s="13"/>
+      <c r="K299" s="14"/>
       <c r="M299" s="3" t="s">
         <v>872</v>
       </c>
@@ -23284,7 +23295,7 @@
       <c r="J300" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K300" s="13"/>
+      <c r="K300" s="14"/>
       <c r="M300" s="3" t="s">
         <v>872</v>
       </c>
@@ -23326,7 +23337,7 @@
       <c r="J301" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K301" s="13"/>
+      <c r="K301" s="14"/>
       <c r="M301" s="3" t="s">
         <v>872</v>
       </c>
@@ -23368,7 +23379,7 @@
       <c r="J302" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K302" s="13"/>
+      <c r="K302" s="14"/>
       <c r="M302" s="3" t="s">
         <v>872</v>
       </c>
@@ -23410,7 +23421,7 @@
       <c r="J303" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K303" s="13"/>
+      <c r="K303" s="14"/>
       <c r="M303" s="3" t="s">
         <v>872</v>
       </c>
@@ -23452,7 +23463,7 @@
       <c r="J304" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K304" s="13"/>
+      <c r="K304" s="14"/>
       <c r="M304" s="3" t="s">
         <v>872</v>
       </c>
@@ -23494,7 +23505,7 @@
       <c r="J305" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K305" s="13"/>
+      <c r="K305" s="14"/>
       <c r="M305" s="3" t="s">
         <v>872</v>
       </c>
@@ -23536,7 +23547,7 @@
       <c r="J306" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K306" s="13"/>
+      <c r="K306" s="14"/>
       <c r="M306" s="3" t="s">
         <v>872</v>
       </c>
@@ -23578,7 +23589,7 @@
       <c r="J307" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K307" s="13"/>
+      <c r="K307" s="14"/>
       <c r="M307" s="3" t="s">
         <v>872</v>
       </c>
@@ -23620,7 +23631,7 @@
       <c r="J308" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K308" s="13"/>
+      <c r="K308" s="14"/>
       <c r="M308" s="3" t="s">
         <v>872</v>
       </c>
@@ -23662,7 +23673,7 @@
       <c r="J309" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K309" s="13"/>
+      <c r="K309" s="14"/>
       <c r="M309" s="3" t="s">
         <v>878</v>
       </c>
@@ -23704,7 +23715,7 @@
       <c r="J310" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K310" s="13"/>
+      <c r="K310" s="14"/>
       <c r="M310" s="3" t="s">
         <v>878</v>
       </c>
@@ -23746,7 +23757,7 @@
       <c r="J311" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K311" s="13"/>
+      <c r="K311" s="14"/>
       <c r="M311" s="3" t="s">
         <v>878</v>
       </c>
@@ -23788,7 +23799,7 @@
       <c r="J312" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K312" s="13"/>
+      <c r="K312" s="14"/>
       <c r="M312" s="3" t="s">
         <v>878</v>
       </c>
@@ -23830,7 +23841,7 @@
       <c r="J313" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K313" s="13"/>
+      <c r="K313" s="14"/>
       <c r="M313" s="3" t="s">
         <v>882</v>
       </c>
@@ -23872,7 +23883,7 @@
       <c r="J314" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K314" s="13"/>
+      <c r="K314" s="14"/>
       <c r="M314" s="3" t="s">
         <v>886</v>
       </c>
@@ -23914,7 +23925,7 @@
       <c r="J315" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K315" s="13"/>
+      <c r="K315" s="14"/>
       <c r="M315" s="3" t="s">
         <v>890</v>
       </c>
@@ -23956,7 +23967,7 @@
       <c r="J316" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K316" s="13"/>
+      <c r="K316" s="14"/>
       <c r="M316" s="3" t="s">
         <v>890</v>
       </c>
@@ -23998,7 +24009,7 @@
       <c r="J317" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K317" s="13"/>
+      <c r="K317" s="14"/>
       <c r="M317" s="3" t="s">
         <v>894</v>
       </c>
@@ -24040,7 +24051,7 @@
       <c r="J318" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K318" s="13"/>
+      <c r="K318" s="14"/>
       <c r="M318" s="3" t="s">
         <v>894</v>
       </c>
@@ -24082,7 +24093,7 @@
       <c r="J319" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K319" s="13"/>
+      <c r="K319" s="14"/>
       <c r="M319" s="3" t="s">
         <v>894</v>
       </c>
@@ -24124,7 +24135,7 @@
       <c r="J320" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K320" s="13"/>
+      <c r="K320" s="14"/>
       <c r="M320" s="3" t="s">
         <v>894</v>
       </c>
@@ -24166,7 +24177,7 @@
       <c r="J321" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K321" s="13"/>
+      <c r="K321" s="14"/>
       <c r="M321" s="3" t="s">
         <v>894</v>
       </c>
@@ -24208,7 +24219,7 @@
       <c r="J322" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K322" s="13"/>
+      <c r="K322" s="14"/>
       <c r="M322" s="3" t="s">
         <v>899</v>
       </c>
@@ -24250,7 +24261,7 @@
       <c r="J323" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K323" s="13"/>
+      <c r="K323" s="14"/>
       <c r="M323" s="3" t="s">
         <v>903</v>
       </c>
@@ -24292,7 +24303,7 @@
       <c r="J324" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K324" s="13"/>
+      <c r="K324" s="14"/>
       <c r="M324" s="3" t="s">
         <v>907</v>
       </c>
@@ -24334,7 +24345,7 @@
       <c r="J325" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K325" s="13"/>
+      <c r="K325" s="14"/>
       <c r="M325" s="3" t="s">
         <v>907</v>
       </c>
@@ -24376,7 +24387,7 @@
       <c r="J326" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K326" s="13"/>
+      <c r="K326" s="14"/>
       <c r="M326" s="3" t="s">
         <v>907</v>
       </c>
@@ -24418,7 +24429,7 @@
       <c r="J327" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K327" s="13"/>
+      <c r="K327" s="14"/>
       <c r="M327" s="3" t="s">
         <v>907</v>
       </c>
@@ -24460,7 +24471,7 @@
       <c r="J328" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K328" s="13"/>
+      <c r="K328" s="14"/>
       <c r="M328" s="3" t="s">
         <v>907</v>
       </c>
@@ -24502,7 +24513,7 @@
       <c r="J329" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K329" s="13"/>
+      <c r="K329" s="14"/>
       <c r="M329" s="3" t="s">
         <v>907</v>
       </c>
@@ -24544,7 +24555,7 @@
       <c r="J330" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K330" s="13"/>
+      <c r="K330" s="14"/>
       <c r="M330" s="3" t="s">
         <v>907</v>
       </c>
@@ -24586,7 +24597,7 @@
       <c r="J331" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K331" s="13"/>
+      <c r="K331" s="14"/>
       <c r="M331" s="3" t="s">
         <v>907</v>
       </c>
@@ -24628,7 +24639,7 @@
       <c r="J332" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K332" s="13"/>
+      <c r="K332" s="14"/>
       <c r="M332" s="3" t="s">
         <v>907</v>
       </c>
@@ -24670,7 +24681,7 @@
       <c r="J333" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K333" s="13"/>
+      <c r="K333" s="14"/>
       <c r="M333" s="3" t="s">
         <v>907</v>
       </c>
@@ -24712,7 +24723,7 @@
       <c r="J334" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K334" s="13"/>
+      <c r="K334" s="14"/>
       <c r="M334" s="3" t="s">
         <v>907</v>
       </c>
@@ -24754,7 +24765,7 @@
       <c r="J335" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K335" s="13"/>
+      <c r="K335" s="14"/>
       <c r="M335" s="3" t="s">
         <v>907</v>
       </c>
@@ -24796,7 +24807,7 @@
       <c r="J336" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K336" s="13"/>
+      <c r="K336" s="14"/>
       <c r="M336" s="3" t="s">
         <v>907</v>
       </c>
@@ -24838,7 +24849,7 @@
       <c r="J337" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K337" s="13"/>
+      <c r="K337" s="14"/>
       <c r="M337" s="3" t="s">
         <v>907</v>
       </c>
@@ -24880,7 +24891,7 @@
       <c r="J338" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K338" s="13"/>
+      <c r="K338" s="14"/>
       <c r="M338" s="3" t="s">
         <v>907</v>
       </c>
@@ -24922,7 +24933,7 @@
       <c r="J339" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K339" s="13"/>
+      <c r="K339" s="14"/>
       <c r="M339" s="3" t="s">
         <v>907</v>
       </c>
@@ -24964,7 +24975,7 @@
       <c r="J340" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K340" s="13"/>
+      <c r="K340" s="14"/>
       <c r="M340" s="3" t="s">
         <v>907</v>
       </c>
@@ -25006,7 +25017,7 @@
       <c r="J341" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K341" s="13"/>
+      <c r="K341" s="14"/>
       <c r="M341" s="3" t="s">
         <v>907</v>
       </c>
@@ -25048,7 +25059,7 @@
       <c r="J342" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K342" s="13"/>
+      <c r="K342" s="14"/>
       <c r="M342" s="3" t="s">
         <v>907</v>
       </c>
@@ -25090,7 +25101,7 @@
       <c r="J343" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K343" s="13"/>
+      <c r="K343" s="14"/>
       <c r="M343" s="3" t="s">
         <v>907</v>
       </c>
@@ -25132,7 +25143,7 @@
       <c r="J344" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K344" s="13"/>
+      <c r="K344" s="14"/>
       <c r="M344" s="3" t="s">
         <v>907</v>
       </c>
@@ -25174,7 +25185,7 @@
       <c r="J345" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K345" s="13"/>
+      <c r="K345" s="14"/>
       <c r="M345" s="3" t="s">
         <v>907</v>
       </c>
@@ -25216,7 +25227,7 @@
       <c r="J346" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K346" s="13"/>
+      <c r="K346" s="14"/>
       <c r="M346" s="3" t="s">
         <v>907</v>
       </c>
@@ -25258,7 +25269,7 @@
       <c r="J347" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K347" s="13"/>
+      <c r="K347" s="14"/>
       <c r="M347" s="3" t="s">
         <v>907</v>
       </c>
@@ -25300,7 +25311,7 @@
       <c r="J348" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K348" s="13"/>
+      <c r="K348" s="14"/>
       <c r="M348" s="3" t="s">
         <v>907</v>
       </c>
@@ -25342,7 +25353,7 @@
       <c r="J349" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K349" s="13"/>
+      <c r="K349" s="14"/>
       <c r="M349" s="3" t="s">
         <v>907</v>
       </c>
@@ -25384,7 +25395,7 @@
       <c r="J350" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K350" s="13"/>
+      <c r="K350" s="14"/>
       <c r="M350" s="3" t="s">
         <v>907</v>
       </c>
@@ -25426,7 +25437,7 @@
       <c r="J351" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K351" s="13"/>
+      <c r="K351" s="14"/>
       <c r="M351" s="3" t="s">
         <v>907</v>
       </c>
@@ -25468,7 +25479,7 @@
       <c r="J352" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K352" s="13"/>
+      <c r="K352" s="14"/>
       <c r="M352" s="3" t="s">
         <v>907</v>
       </c>
@@ -25510,7 +25521,7 @@
       <c r="J353" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K353" s="13"/>
+      <c r="K353" s="14"/>
       <c r="M353" s="3" t="s">
         <v>907</v>
       </c>
@@ -25552,7 +25563,7 @@
       <c r="J354" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K354" s="13"/>
+      <c r="K354" s="14"/>
       <c r="M354" s="3" t="s">
         <v>907</v>
       </c>
@@ -25594,7 +25605,7 @@
       <c r="J355" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K355" s="13"/>
+      <c r="K355" s="14"/>
       <c r="M355" s="3" t="s">
         <v>907</v>
       </c>
@@ -25636,7 +25647,7 @@
       <c r="J356" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K356" s="13"/>
+      <c r="K356" s="14"/>
       <c r="M356" s="3" t="s">
         <v>907</v>
       </c>
@@ -25678,7 +25689,7 @@
       <c r="J357" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K357" s="13"/>
+      <c r="K357" s="14"/>
       <c r="M357" s="3" t="s">
         <v>907</v>
       </c>
@@ -25720,7 +25731,7 @@
       <c r="J358" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K358" s="13"/>
+      <c r="K358" s="14"/>
       <c r="M358" s="3" t="s">
         <v>907</v>
       </c>
@@ -25762,7 +25773,7 @@
       <c r="J359" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K359" s="13"/>
+      <c r="K359" s="14"/>
       <c r="M359" s="3" t="s">
         <v>907</v>
       </c>
@@ -25804,7 +25815,7 @@
       <c r="J360" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K360" s="13"/>
+      <c r="K360" s="14"/>
       <c r="M360" s="3" t="s">
         <v>907</v>
       </c>
@@ -25846,7 +25857,7 @@
       <c r="J361" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K361" s="13"/>
+      <c r="K361" s="14"/>
       <c r="M361" s="3" t="s">
         <v>907</v>
       </c>
@@ -25888,7 +25899,7 @@
       <c r="J362" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K362" s="13"/>
+      <c r="K362" s="14"/>
       <c r="M362" s="3" t="s">
         <v>907</v>
       </c>
@@ -25930,7 +25941,7 @@
       <c r="J363" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K363" s="13"/>
+      <c r="K363" s="14"/>
       <c r="M363" s="3" t="s">
         <v>907</v>
       </c>
@@ -25972,7 +25983,7 @@
       <c r="J364" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K364" s="13"/>
+      <c r="K364" s="14"/>
       <c r="M364" s="3" t="s">
         <v>907</v>
       </c>
@@ -26014,7 +26025,7 @@
       <c r="J365" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K365" s="13"/>
+      <c r="K365" s="14"/>
       <c r="M365" s="3" t="s">
         <v>907</v>
       </c>
@@ -26056,7 +26067,7 @@
       <c r="J366" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K366" s="13"/>
+      <c r="K366" s="14"/>
       <c r="M366" s="3" t="s">
         <v>907</v>
       </c>
@@ -26098,7 +26109,7 @@
       <c r="J367" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K367" s="13"/>
+      <c r="K367" s="14"/>
       <c r="M367" s="3" t="s">
         <v>907</v>
       </c>
@@ -26140,7 +26151,7 @@
       <c r="J368" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K368" s="13"/>
+      <c r="K368" s="14"/>
       <c r="M368" s="3" t="s">
         <v>911</v>
       </c>
@@ -26182,7 +26193,7 @@
       <c r="J369" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K369" s="13"/>
+      <c r="K369" s="14"/>
       <c r="M369" s="3" t="s">
         <v>911</v>
       </c>
@@ -26224,7 +26235,7 @@
       <c r="J370" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K370" s="13"/>
+      <c r="K370" s="14"/>
       <c r="M370" s="3" t="s">
         <v>911</v>
       </c>
@@ -26266,7 +26277,7 @@
       <c r="J371" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K371" s="13"/>
+      <c r="K371" s="14"/>
       <c r="M371" s="3" t="s">
         <v>911</v>
       </c>
@@ -26308,7 +26319,7 @@
       <c r="J372" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K372" s="13"/>
+      <c r="K372" s="14"/>
       <c r="M372" s="3" t="s">
         <v>911</v>
       </c>
@@ -26350,7 +26361,7 @@
       <c r="J373" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K373" s="13"/>
+      <c r="K373" s="14"/>
       <c r="M373" s="3" t="s">
         <v>911</v>
       </c>
@@ -26392,7 +26403,7 @@
       <c r="J374" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K374" s="13"/>
+      <c r="K374" s="14"/>
       <c r="M374" s="3" t="s">
         <v>915</v>
       </c>
@@ -26434,7 +26445,7 @@
       <c r="J375" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K375" s="13"/>
+      <c r="K375" s="14"/>
       <c r="M375" s="3" t="s">
         <v>915</v>
       </c>
@@ -26476,7 +26487,7 @@
       <c r="J376" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K376" s="13"/>
+      <c r="K376" s="14"/>
       <c r="M376" s="3" t="s">
         <v>915</v>
       </c>
@@ -26518,7 +26529,7 @@
       <c r="J377" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K377" s="13"/>
+      <c r="K377" s="14"/>
       <c r="M377" s="3" t="s">
         <v>915</v>
       </c>
@@ -26560,7 +26571,7 @@
       <c r="J378" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K378" s="13"/>
+      <c r="K378" s="14"/>
       <c r="M378" s="3" t="s">
         <v>915</v>
       </c>
@@ -26602,7 +26613,7 @@
       <c r="J379" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K379" s="13"/>
+      <c r="K379" s="14"/>
       <c r="M379" s="3" t="s">
         <v>915</v>
       </c>
@@ -26644,7 +26655,7 @@
       <c r="J380" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K380" s="13"/>
+      <c r="K380" s="14"/>
       <c r="M380" s="3" t="s">
         <v>919</v>
       </c>
@@ -26686,7 +26697,7 @@
       <c r="J381" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K381" s="13"/>
+      <c r="K381" s="14"/>
       <c r="M381" s="3" t="s">
         <v>923</v>
       </c>
@@ -26728,7 +26739,7 @@
       <c r="J382" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K382" s="13"/>
+      <c r="K382" s="14"/>
       <c r="M382" s="3" t="s">
         <v>927</v>
       </c>
@@ -26770,7 +26781,7 @@
       <c r="J383" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K383" s="13"/>
+      <c r="K383" s="14"/>
       <c r="M383" s="3" t="s">
         <v>931</v>
       </c>
@@ -26812,7 +26823,7 @@
       <c r="J384" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K384" s="13"/>
+      <c r="K384" s="14"/>
       <c r="M384" s="3" t="s">
         <v>931</v>
       </c>
@@ -26854,7 +26865,7 @@
       <c r="J385" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K385" s="13"/>
+      <c r="K385" s="14"/>
       <c r="M385" s="3" t="s">
         <v>935</v>
       </c>
@@ -26896,7 +26907,7 @@
       <c r="J386" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K386" s="13"/>
+      <c r="K386" s="14"/>
       <c r="M386" s="3" t="s">
         <v>935</v>
       </c>
@@ -26938,7 +26949,7 @@
       <c r="J387" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K387" s="13"/>
+      <c r="K387" s="14"/>
       <c r="M387" s="3" t="s">
         <v>935</v>
       </c>
@@ -26980,7 +26991,7 @@
       <c r="J388" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K388" s="13"/>
+      <c r="K388" s="14"/>
       <c r="M388" s="3" t="s">
         <v>935</v>
       </c>
@@ -27022,7 +27033,7 @@
       <c r="J389" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K389" s="13"/>
+      <c r="K389" s="14"/>
       <c r="M389" s="3" t="s">
         <v>935</v>
       </c>
@@ -44866,7 +44877,7 @@
       <c r="J816" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K816" s="13"/>
+      <c r="K816" s="14"/>
       <c r="M816" s="3" t="s">
         <v>1655</v>
       </c>
@@ -44908,7 +44919,7 @@
       <c r="J817" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K817" s="13"/>
+      <c r="K817" s="14"/>
       <c r="M817" s="3" t="s">
         <v>1655</v>
       </c>
@@ -44950,7 +44961,7 @@
       <c r="J818" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K818" s="13"/>
+      <c r="K818" s="14"/>
       <c r="M818" s="3" t="s">
         <v>1655</v>
       </c>
@@ -44992,7 +45003,7 @@
       <c r="J819" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K819" s="13"/>
+      <c r="K819" s="14"/>
       <c r="M819" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45034,7 +45045,7 @@
       <c r="J820" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K820" s="13"/>
+      <c r="K820" s="14"/>
       <c r="M820" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45076,7 +45087,7 @@
       <c r="J821" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K821" s="13"/>
+      <c r="K821" s="14"/>
       <c r="M821" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45118,7 +45129,7 @@
       <c r="J822" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K822" s="13"/>
+      <c r="K822" s="14"/>
       <c r="M822" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45160,7 +45171,7 @@
       <c r="J823" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K823" s="13"/>
+      <c r="K823" s="14"/>
       <c r="M823" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45202,7 +45213,7 @@
       <c r="J824" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K824" s="13"/>
+      <c r="K824" s="14"/>
       <c r="M824" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45244,7 +45255,7 @@
       <c r="J825" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K825" s="13"/>
+      <c r="K825" s="14"/>
       <c r="M825" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45286,7 +45297,7 @@
       <c r="J826" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K826" s="13"/>
+      <c r="K826" s="14"/>
       <c r="M826" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45328,7 +45339,7 @@
       <c r="J827" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K827" s="13"/>
+      <c r="K827" s="14"/>
       <c r="M827" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45370,7 +45381,7 @@
       <c r="J828" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K828" s="13"/>
+      <c r="K828" s="14"/>
       <c r="M828" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45412,7 +45423,7 @@
       <c r="J829" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K829" s="13"/>
+      <c r="K829" s="14"/>
       <c r="M829" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45454,7 +45465,7 @@
       <c r="J830" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K830" s="13"/>
+      <c r="K830" s="14"/>
       <c r="M830" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45496,7 +45507,7 @@
       <c r="J831" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K831" s="13"/>
+      <c r="K831" s="14"/>
       <c r="M831" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45538,7 +45549,7 @@
       <c r="J832" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K832" s="13"/>
+      <c r="K832" s="14"/>
       <c r="M832" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45580,7 +45591,7 @@
       <c r="J833" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K833" s="13"/>
+      <c r="K833" s="14"/>
       <c r="M833" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45622,7 +45633,7 @@
       <c r="J834" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K834" s="13"/>
+      <c r="K834" s="14"/>
       <c r="M834" s="3" t="s">
         <v>1655</v>
       </c>
@@ -45687,7 +45698,7 @@
         <v>1659</v>
       </c>
       <c r="S835" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="836" s="2" customFormat="1" spans="1:19">
@@ -45744,7 +45755,7 @@
         <v>1661</v>
       </c>
       <c r="S836" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="837" s="2" customFormat="1" spans="1:19">
@@ -45798,10 +45809,10 @@
         <v>1662</v>
       </c>
       <c r="R837" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S837" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="838" s="2" customFormat="1" spans="1:19">
@@ -45858,7 +45869,7 @@
         <v>1664</v>
       </c>
       <c r="S838" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="839" s="2" customFormat="1" spans="1:19">
@@ -45915,7 +45926,7 @@
         <v>1666</v>
       </c>
       <c r="S839" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="840" s="2" customFormat="1" spans="1:19">
@@ -45969,10 +45980,10 @@
         <v>1662</v>
       </c>
       <c r="R840" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S840" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="841" s="2" customFormat="1" spans="1:19">
@@ -46086,7 +46097,7 @@
         <v>1669</v>
       </c>
       <c r="S842" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="843" s="2" customFormat="1" spans="1:19">
@@ -46143,7 +46154,7 @@
         <v>1671</v>
       </c>
       <c r="S843" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="844" s="2" customFormat="1" spans="1:19">
@@ -46200,7 +46211,7 @@
         <v>1672</v>
       </c>
       <c r="S844" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="845" s="2" customFormat="1" spans="1:19">
@@ -46257,7 +46268,7 @@
         <v>1674</v>
       </c>
       <c r="S845" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="846" s="2" customFormat="1" spans="1:19">
@@ -46314,7 +46325,7 @@
         <v>1676</v>
       </c>
       <c r="S846" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="847" s="2" customFormat="1" spans="1:19">
@@ -46371,7 +46382,7 @@
         <v>1678</v>
       </c>
       <c r="S847" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="848" s="2" customFormat="1" spans="1:19">
@@ -46428,7 +46439,7 @@
         <v>1681</v>
       </c>
       <c r="S848" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="849" s="2" customFormat="1" spans="1:20">
@@ -46485,7 +46496,7 @@
         <v>1684</v>
       </c>
       <c r="S849" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T849" s="2" t="s">
         <v>1685</v>
@@ -46545,7 +46556,7 @@
         <v>1691</v>
       </c>
       <c r="S850" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="851" s="2" customFormat="1" spans="1:19">
@@ -46602,7 +46613,7 @@
         <v>1697</v>
       </c>
       <c r="S851" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="852" s="2" customFormat="1" spans="1:19">
@@ -46659,7 +46670,7 @@
         <v>1699</v>
       </c>
       <c r="S852" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="853" s="2" customFormat="1" spans="1:19">
@@ -46773,7 +46784,7 @@
         <v>1708</v>
       </c>
       <c r="S854" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="855" s="2" customFormat="1" spans="1:20">
@@ -46950,7 +46961,7 @@
         <v>1722</v>
       </c>
       <c r="S857" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="858" s="2" customFormat="1" spans="1:19">
@@ -47007,7 +47018,7 @@
         <v>1728</v>
       </c>
       <c r="S858" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="859" s="2" customFormat="1" spans="1:20">
@@ -47064,7 +47075,7 @@
         <v>1732</v>
       </c>
       <c r="S859" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T859" s="2" t="s">
         <v>1733</v>
@@ -47124,7 +47135,7 @@
         <v>1738</v>
       </c>
       <c r="S860" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="861" s="2" customFormat="1" spans="1:19">
@@ -47295,7 +47306,7 @@
         <v>1743</v>
       </c>
       <c r="S863" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="864" s="2" customFormat="1" spans="1:20">
@@ -47337,7 +47348,7 @@
         <v>1745</v>
       </c>
       <c r="N864" s="2" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="O864" s="9" t="s">
         <v>1746</v>
@@ -47412,7 +47423,7 @@
         <v>1755</v>
       </c>
       <c r="S865" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T865" s="2" t="s">
         <v>1756</v>
@@ -47472,7 +47483,7 @@
         <v>1758</v>
       </c>
       <c r="S866" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T866" s="2" t="s">
         <v>1759</v>
@@ -47532,7 +47543,7 @@
         <v>1765</v>
       </c>
       <c r="S867" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="868" s="2" customFormat="1" spans="1:19">
@@ -47589,7 +47600,7 @@
         <v>1771</v>
       </c>
       <c r="S868" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="869" s="2" customFormat="1" ht="15.75" spans="1:20">
@@ -47639,7 +47650,7 @@
       <c r="P869" s="9" t="s">
         <v>1775</v>
       </c>
-      <c r="Q869" s="14" t="s">
+      <c r="Q869" s="15" t="s">
         <v>1776</v>
       </c>
       <c r="R869" s="2" t="s">
@@ -47706,7 +47717,7 @@
         <v>1780</v>
       </c>
       <c r="S870" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T870" s="2" t="s">
         <v>1778</v>
@@ -47766,7 +47777,7 @@
         <v>1782</v>
       </c>
       <c r="S871" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T871" s="2" t="s">
         <v>1778</v>
@@ -47826,7 +47837,7 @@
         <v>1784</v>
       </c>
       <c r="S872" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T872" s="2" t="s">
         <v>1778</v>
@@ -47886,7 +47897,7 @@
         <v>1786</v>
       </c>
       <c r="S873" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T873" s="2" t="s">
         <v>1778</v>
@@ -47946,7 +47957,7 @@
         <v>1788</v>
       </c>
       <c r="S874" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T874" s="2" t="s">
         <v>1778</v>
@@ -47991,7 +48002,7 @@
         <v>1790</v>
       </c>
       <c r="N875" s="2" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="O875" s="9" t="s">
         <v>1791</v>
@@ -48006,7 +48017,7 @@
         <v>1794</v>
       </c>
       <c r="S875" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="876" s="2" customFormat="1" spans="1:19">
@@ -48057,13 +48068,13 @@
         <v>1792</v>
       </c>
       <c r="Q876" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="R876" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="R876" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="S876" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="877" s="2" customFormat="1" spans="1:19">
@@ -48120,7 +48131,7 @@
         <v>1801</v>
       </c>
       <c r="S877" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="878" s="2" customFormat="1" spans="1:20">
@@ -48177,7 +48188,7 @@
         <v>1803</v>
       </c>
       <c r="S878" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T878" s="2" t="s">
         <v>1804</v>
@@ -48237,7 +48248,7 @@
         <v>1810</v>
       </c>
       <c r="S879" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="880" s="2" customFormat="1" spans="1:20">
@@ -48294,7 +48305,7 @@
         <v>1816</v>
       </c>
       <c r="S880" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T880" s="2" t="s">
         <v>1817</v>
@@ -48354,7 +48365,7 @@
         <v>1823</v>
       </c>
       <c r="S881" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="882" s="2" customFormat="1" spans="1:19">
@@ -48411,7 +48422,7 @@
         <v>1825</v>
       </c>
       <c r="S882" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="883" s="2" customFormat="1" spans="1:19">
@@ -48468,7 +48479,7 @@
         <v>1827</v>
       </c>
       <c r="S883" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="884" s="2" customFormat="1" spans="1:20">
@@ -48642,7 +48653,7 @@
         <v>1838</v>
       </c>
       <c r="S886" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="887" s="2" customFormat="1" spans="1:19">
@@ -48699,7 +48710,7 @@
         <v>1844</v>
       </c>
       <c r="S887" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="888" s="2" customFormat="1" spans="1:19">
@@ -48756,7 +48767,7 @@
         <v>1846</v>
       </c>
       <c r="S888" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="889" s="2" customFormat="1" spans="1:19">
@@ -48813,7 +48824,7 @@
         <v>1848</v>
       </c>
       <c r="S889" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="890" s="2" customFormat="1" spans="1:20">
@@ -48855,7 +48866,7 @@
         <v>1840</v>
       </c>
       <c r="N890" s="2" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="O890" s="9" t="s">
         <v>1841</v>
@@ -48870,7 +48881,7 @@
         <v>1678</v>
       </c>
       <c r="S890" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T890" s="2" t="s">
         <v>1850</v>
@@ -48930,7 +48941,7 @@
         <v>1856</v>
       </c>
       <c r="S891" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="892" s="2" customFormat="1" spans="1:19">
@@ -48987,7 +48998,7 @@
         <v>1862</v>
       </c>
       <c r="S892" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="893" s="2" customFormat="1" spans="1:19">
@@ -49044,7 +49055,7 @@
         <v>1868</v>
       </c>
       <c r="S893" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="894" s="2" customFormat="1" spans="1:19">
@@ -49101,7 +49112,7 @@
         <v>1874</v>
       </c>
       <c r="S894" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="895" s="2" customFormat="1" spans="1:19">
@@ -49158,7 +49169,7 @@
         <v>1876</v>
       </c>
       <c r="S895" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="896" s="2" customFormat="1" spans="1:19">
@@ -49215,7 +49226,7 @@
         <v>1878</v>
       </c>
       <c r="S896" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="897" s="2" customFormat="1" spans="1:19">
@@ -49272,7 +49283,7 @@
         <v>1880</v>
       </c>
       <c r="S897" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="898" s="4" customFormat="1" spans="1:20">
@@ -49306,7 +49317,7 @@
       <c r="J898" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K898" s="16"/>
+      <c r="K898" s="17"/>
       <c r="L898" s="4" t="s">
         <v>369</v>
       </c>
@@ -49316,10 +49327,10 @@
       <c r="N898" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O898" s="17" t="s">
+      <c r="O898" s="18" t="s">
         <v>1883</v>
       </c>
-      <c r="P898" s="17" t="s">
+      <c r="P898" s="18" t="s">
         <v>1884</v>
       </c>
       <c r="Q898" s="4" t="s">
@@ -49366,7 +49377,7 @@
       <c r="J899" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K899" s="16"/>
+      <c r="K899" s="17"/>
       <c r="L899" s="4" t="s">
         <v>369</v>
       </c>
@@ -49376,10 +49387,10 @@
       <c r="N899" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O899" s="17" t="s">
+      <c r="O899" s="18" t="s">
         <v>1883</v>
       </c>
-      <c r="P899" s="17" t="s">
+      <c r="P899" s="18" t="s">
         <v>1884</v>
       </c>
       <c r="Q899" s="4" t="s">
@@ -49389,7 +49400,7 @@
         <v>1888</v>
       </c>
       <c r="S899" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="900" s="2" customFormat="1" spans="1:20">
@@ -49446,7 +49457,7 @@
         <v>1894</v>
       </c>
       <c r="S900" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T900" s="2" t="s">
         <v>1895</v>
@@ -49522,10 +49533,10 @@
       <c r="C902" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="D902" s="15">
+      <c r="D902" s="16">
         <v>342</v>
       </c>
-      <c r="E902" s="15">
+      <c r="E902" s="16">
         <v>342</v>
       </c>
       <c r="F902" s="2">
@@ -49566,7 +49577,7 @@
         <v>1900</v>
       </c>
       <c r="S902" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T902" s="2" t="s">
         <v>1901</v>
@@ -49603,7 +49614,7 @@
       <c r="J903" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K903" s="16"/>
+      <c r="K903" s="17"/>
       <c r="M903" s="4" t="s">
         <v>1890</v>
       </c>
@@ -49645,7 +49656,7 @@
       <c r="J904" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K904" s="16"/>
+      <c r="K904" s="17"/>
       <c r="M904" s="4" t="s">
         <v>1890</v>
       </c>
@@ -49687,7 +49698,7 @@
       <c r="J905" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K905" s="16"/>
+      <c r="K905" s="17"/>
       <c r="M905" s="4" t="s">
         <v>1890</v>
       </c>
@@ -49729,7 +49740,7 @@
       <c r="J906" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K906" s="18"/>
+      <c r="K906" s="19"/>
       <c r="M906" s="5" t="s">
         <v>1890</v>
       </c>
@@ -49771,7 +49782,7 @@
       <c r="J907" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K907" s="18"/>
+      <c r="K907" s="19"/>
       <c r="M907" s="5" t="s">
         <v>1890</v>
       </c>
@@ -49816,7 +49827,7 @@
       <c r="J908" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K908" s="18"/>
+      <c r="K908" s="19"/>
       <c r="M908" s="5" t="s">
         <v>1906</v>
       </c>
@@ -49858,7 +49869,7 @@
       <c r="J909" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K909" s="18"/>
+      <c r="K909" s="19"/>
       <c r="M909" s="5" t="s">
         <v>1906</v>
       </c>
@@ -49900,7 +49911,7 @@
       <c r="J910" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K910" s="18"/>
+      <c r="K910" s="19"/>
       <c r="M910" s="5" t="s">
         <v>1910</v>
       </c>
@@ -49942,7 +49953,7 @@
       <c r="J911" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K911" s="18"/>
+      <c r="K911" s="19"/>
       <c r="M911" s="5" t="s">
         <v>1914</v>
       </c>
@@ -49984,7 +49995,7 @@
       <c r="J912" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K912" s="18"/>
+      <c r="K912" s="19"/>
       <c r="M912" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50026,7 +50037,7 @@
       <c r="J913" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K913" s="18"/>
+      <c r="K913" s="19"/>
       <c r="M913" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50068,7 +50079,7 @@
       <c r="J914" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K914" s="18"/>
+      <c r="K914" s="19"/>
       <c r="M914" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50110,7 +50121,7 @@
       <c r="J915" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K915" s="18"/>
+      <c r="K915" s="19"/>
       <c r="M915" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50152,7 +50163,7 @@
       <c r="J916" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K916" s="18"/>
+      <c r="K916" s="19"/>
       <c r="M916" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50194,7 +50205,7 @@
       <c r="J917" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K917" s="18"/>
+      <c r="K917" s="19"/>
       <c r="M917" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50236,7 +50247,7 @@
       <c r="J918" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K918" s="18"/>
+      <c r="K918" s="19"/>
       <c r="M918" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50278,7 +50289,7 @@
       <c r="J919" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K919" s="18"/>
+      <c r="K919" s="19"/>
       <c r="M919" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50320,7 +50331,7 @@
       <c r="J920" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K920" s="18"/>
+      <c r="K920" s="19"/>
       <c r="M920" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50362,7 +50373,7 @@
       <c r="J921" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K921" s="18"/>
+      <c r="K921" s="19"/>
       <c r="M921" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50404,7 +50415,7 @@
       <c r="J922" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K922" s="18"/>
+      <c r="K922" s="19"/>
       <c r="M922" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50446,7 +50457,7 @@
       <c r="J923" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K923" s="18"/>
+      <c r="K923" s="19"/>
       <c r="M923" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50488,7 +50499,7 @@
       <c r="J924" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K924" s="18"/>
+      <c r="K924" s="19"/>
       <c r="M924" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50530,7 +50541,7 @@
       <c r="J925" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K925" s="18"/>
+      <c r="K925" s="19"/>
       <c r="M925" s="5" t="s">
         <v>1918</v>
       </c>
@@ -50572,7 +50583,7 @@
       <c r="J926" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K926" s="18"/>
+      <c r="K926" s="19"/>
       <c r="M926" s="5" t="s">
         <v>1923</v>
       </c>
@@ -50614,7 +50625,7 @@
       <c r="J927" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K927" s="18"/>
+      <c r="K927" s="19"/>
       <c r="M927" s="5" t="s">
         <v>1927</v>
       </c>
@@ -50656,7 +50667,7 @@
       <c r="J928" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K928" s="18"/>
+      <c r="K928" s="19"/>
       <c r="M928" s="5" t="s">
         <v>1931</v>
       </c>
@@ -50698,7 +50709,7 @@
       <c r="J929" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K929" s="18"/>
+      <c r="K929" s="19"/>
       <c r="M929" s="5" t="s">
         <v>1935</v>
       </c>
@@ -50740,7 +50751,7 @@
       <c r="J930" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K930" s="18"/>
+      <c r="K930" s="19"/>
       <c r="M930" s="5" t="s">
         <v>1935</v>
       </c>
@@ -50782,7 +50793,7 @@
       <c r="J931" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K931" s="18"/>
+      <c r="K931" s="19"/>
       <c r="M931" s="5" t="s">
         <v>1939</v>
       </c>
@@ -50824,7 +50835,7 @@
       <c r="J932" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K932" s="18"/>
+      <c r="K932" s="19"/>
       <c r="M932" s="5" t="s">
         <v>1939</v>
       </c>
@@ -50866,7 +50877,7 @@
       <c r="J933" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K933" s="18"/>
+      <c r="K933" s="19"/>
       <c r="M933" s="5" t="s">
         <v>1939</v>
       </c>
@@ -50908,7 +50919,7 @@
       <c r="J934" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K934" s="18"/>
+      <c r="K934" s="19"/>
       <c r="M934" s="5" t="s">
         <v>1939</v>
       </c>
@@ -50950,7 +50961,7 @@
       <c r="J935" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K935" s="18"/>
+      <c r="K935" s="19"/>
       <c r="M935" s="5" t="s">
         <v>1939</v>
       </c>
@@ -50992,7 +51003,7 @@
       <c r="J936" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K936" s="18"/>
+      <c r="K936" s="19"/>
       <c r="M936" s="5" t="s">
         <v>1939</v>
       </c>
@@ -51034,7 +51045,7 @@
       <c r="J937" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K937" s="18"/>
+      <c r="K937" s="19"/>
       <c r="M937" s="5" t="s">
         <v>1944</v>
       </c>
@@ -51076,7 +51087,7 @@
       <c r="J938" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K938" s="18"/>
+      <c r="K938" s="19"/>
       <c r="M938" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51118,7 +51129,7 @@
       <c r="J939" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K939" s="18"/>
+      <c r="K939" s="19"/>
       <c r="M939" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51160,7 +51171,7 @@
       <c r="J940" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K940" s="18"/>
+      <c r="K940" s="19"/>
       <c r="M940" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51202,7 +51213,7 @@
       <c r="J941" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K941" s="18"/>
+      <c r="K941" s="19"/>
       <c r="M941" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51244,7 +51255,7 @@
       <c r="J942" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K942" s="18"/>
+      <c r="K942" s="19"/>
       <c r="M942" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51286,7 +51297,7 @@
       <c r="J943" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K943" s="18"/>
+      <c r="K943" s="19"/>
       <c r="M943" s="5" t="s">
         <v>1948</v>
       </c>
@@ -51328,7 +51339,7 @@
       <c r="J944" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K944" s="18"/>
+      <c r="K944" s="19"/>
       <c r="M944" s="5" t="s">
         <v>1952</v>
       </c>
@@ -51370,7 +51381,7 @@
       <c r="J945" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K945" s="18"/>
+      <c r="K945" s="19"/>
       <c r="M945" s="5" t="s">
         <v>1952</v>
       </c>
@@ -51412,7 +51423,7 @@
       <c r="J946" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K946" s="18"/>
+      <c r="K946" s="19"/>
       <c r="M946" s="5" t="s">
         <v>1952</v>
       </c>
@@ -51454,7 +51465,7 @@
       <c r="J947" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K947" s="18"/>
+      <c r="K947" s="19"/>
       <c r="M947" s="5" t="s">
         <v>1956</v>
       </c>
@@ -51496,7 +51507,7 @@
       <c r="J948" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K948" s="18"/>
+      <c r="K948" s="19"/>
       <c r="M948" s="5" t="s">
         <v>1956</v>
       </c>
@@ -51538,7 +51549,7 @@
       <c r="J949" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K949" s="18"/>
+      <c r="K949" s="19"/>
       <c r="M949" s="5" t="s">
         <v>1960</v>
       </c>
@@ -51580,7 +51591,7 @@
       <c r="J950" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K950" s="18"/>
+      <c r="K950" s="19"/>
       <c r="M950" s="5" t="s">
         <v>894</v>
       </c>
@@ -51622,7 +51633,7 @@
       <c r="J951" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K951" s="18"/>
+      <c r="K951" s="19"/>
       <c r="M951" s="5" t="s">
         <v>1965</v>
       </c>
@@ -51664,7 +51675,7 @@
       <c r="J952" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K952" s="18"/>
+      <c r="K952" s="19"/>
       <c r="M952" s="5" t="s">
         <v>1965</v>
       </c>
@@ -51706,7 +51717,7 @@
       <c r="J953" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K953" s="18"/>
+      <c r="K953" s="19"/>
       <c r="M953" s="5" t="s">
         <v>1969</v>
       </c>
@@ -51748,7 +51759,7 @@
       <c r="J954" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K954" s="18"/>
+      <c r="K954" s="19"/>
       <c r="M954" s="5" t="s">
         <v>1969</v>
       </c>
@@ -51790,7 +51801,7 @@
       <c r="J955" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K955" s="18"/>
+      <c r="K955" s="19"/>
       <c r="M955" s="5" t="s">
         <v>1655</v>
       </c>
@@ -51832,7 +51843,7 @@
       <c r="J956" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K956" s="18"/>
+      <c r="K956" s="19"/>
       <c r="M956" s="5" t="s">
         <v>1974</v>
       </c>
@@ -51874,7 +51885,7 @@
       <c r="J957" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K957" s="18"/>
+      <c r="K957" s="19"/>
       <c r="M957" s="5" t="s">
         <v>1978</v>
       </c>
@@ -51916,7 +51927,7 @@
       <c r="J958" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K958" s="18"/>
+      <c r="K958" s="19"/>
       <c r="M958" s="5" t="s">
         <v>1982</v>
       </c>
@@ -51958,7 +51969,7 @@
       <c r="J959" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K959" s="18"/>
+      <c r="K959" s="19"/>
       <c r="M959" s="5" t="s">
         <v>1718</v>
       </c>
@@ -52000,7 +52011,7 @@
       <c r="J960" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K960" s="18"/>
+      <c r="K960" s="19"/>
       <c r="M960" s="5" t="s">
         <v>1989</v>
       </c>
@@ -52042,7 +52053,7 @@
       <c r="J961" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K961" s="18"/>
+      <c r="K961" s="19"/>
       <c r="M961" s="5" t="s">
         <v>1724</v>
       </c>
@@ -52084,7 +52095,7 @@
       <c r="J962" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K962" s="18"/>
+      <c r="K962" s="19"/>
       <c r="M962" s="5" t="s">
         <v>1710</v>
       </c>
@@ -52126,7 +52137,7 @@
       <c r="J963" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K963" s="18"/>
+      <c r="K963" s="19"/>
       <c r="M963" s="5" t="s">
         <v>1710</v>
       </c>
@@ -52168,7 +52179,7 @@
       <c r="J964" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K964" s="18"/>
+      <c r="K964" s="19"/>
       <c r="M964" s="5" t="s">
         <v>1999</v>
       </c>
@@ -52210,7 +52221,7 @@
       <c r="J965" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K965" s="18"/>
+      <c r="K965" s="19"/>
       <c r="M965" s="5" t="s">
         <v>2003</v>
       </c>
@@ -52252,7 +52263,7 @@
       <c r="J966" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K966" s="18"/>
+      <c r="K966" s="19"/>
       <c r="M966" s="5" t="s">
         <v>2007</v>
       </c>
@@ -52294,7 +52305,7 @@
       <c r="J967" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K967" s="18"/>
+      <c r="K967" s="19"/>
       <c r="M967" s="5" t="s">
         <v>2007</v>
       </c>
@@ -52336,7 +52347,7 @@
       <c r="J968" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K968" s="18"/>
+      <c r="K968" s="19"/>
       <c r="M968" s="5" t="s">
         <v>2007</v>
       </c>
@@ -52378,7 +52389,7 @@
       <c r="J969" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K969" s="18"/>
+      <c r="K969" s="19"/>
       <c r="M969" s="5" t="s">
         <v>2011</v>
       </c>
